--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="6800" windowWidth="25920" windowHeight="11540"/>
+    <workbookView xWindow="9640" yWindow="1920" windowWidth="27300" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="卡牌设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1088,7 +1089,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1563,4 +1564,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="1920" windowWidth="27300" windowHeight="15880"/>
+    <workbookView windowWidth="19095" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="卡牌设计" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -225,7 +220,7 @@
 当装备还是瞬间使用的
 1.英雄
 2.神器
-</t>
+3.怪物</t>
         </r>
       </text>
     </comment>
@@ -250,7 +245,11 @@
 1圣贤 Enlightened
 2机械  Mechana
 3虚空  Void
-4命约Lifebound</t>
+4命约Lifebound
+5怪物
+6法师
+7士兵
+</t>
         </r>
       </text>
     </comment>
@@ -328,8 +327,100 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1圣贤 Enlightened
+2机械  Mechana
+3虚空  Void
+4命约Lifebound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+种类（英雄，神器，灵魂宝石等）
+当装备还是瞬间使用的
+1.英雄
+2.神器
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1圣贤 Enlightened
+2机械  Mechana
+3虚空  Void
+4命约Lifebound</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
   <si>
     <t>CardID</t>
   </si>
@@ -346,6 +437,12 @@
     <t>所属派系</t>
   </si>
   <si>
+    <t>消耗金钱</t>
+  </si>
+  <si>
+    <t>消耗战力</t>
+  </si>
+  <si>
     <t>积分</t>
   </si>
   <si>
@@ -358,6 +455,285 @@
     <t>亡语</t>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>CostRes</t>
+  </si>
+  <si>
+    <t>CostPower</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>BornSkill</t>
+  </si>
+  <si>
+    <t>DieSkill</t>
+  </si>
+  <si>
+    <t>祈祷</t>
+  </si>
+  <si>
+    <t>学徒</t>
+  </si>
+  <si>
+    <t>秘术传承</t>
+  </si>
+  <si>
+    <t>秘教士</t>
+  </si>
+  <si>
+    <t>搏斗</t>
+  </si>
+  <si>
+    <t>民兵</t>
+  </si>
+  <si>
+    <t>聚合军势</t>
+  </si>
+  <si>
+    <t>重装步兵</t>
+  </si>
+  <si>
+    <t>修格斯</t>
+  </si>
+  <si>
+    <t>邪教徒</t>
+  </si>
+  <si>
+    <t>魔蝠</t>
+  </si>
+  <si>
+    <t>萨麦尔的欺诈者</t>
+  </si>
+  <si>
+    <t>痛苦之魂</t>
+  </si>
+  <si>
+    <t>腐蚀寡妇</t>
+  </si>
+  <si>
+    <t>失败的造物</t>
+  </si>
+  <si>
+    <t>海洋暴君</t>
+  </si>
+  <si>
+    <t>风之暴君</t>
+  </si>
+  <si>
+    <t>大地暴君</t>
+  </si>
+  <si>
+    <t>拉莱耶之主</t>
+  </si>
+  <si>
+    <t>谎言公爵</t>
+  </si>
+  <si>
+    <t>蠕动的混沌</t>
+  </si>
+  <si>
+    <t>堕落之神</t>
+  </si>
+  <si>
+    <t>机械门徒</t>
+  </si>
+  <si>
+    <t>挖掘机</t>
+  </si>
+  <si>
+    <t>钢铁术士加尔</t>
+  </si>
+  <si>
+    <t>火箭快递</t>
+  </si>
+  <si>
+    <t>宗布之弓</t>
+  </si>
+  <si>
+    <t>构造石像</t>
+  </si>
+  <si>
+    <t>鲜血枫林</t>
+  </si>
+  <si>
+    <t>构造僧侣</t>
+  </si>
+  <si>
+    <t>陶唐司徒</t>
+  </si>
+  <si>
+    <t>观造者祭坛</t>
+  </si>
+  <si>
+    <t>青阳使者</t>
+  </si>
+  <si>
+    <t>大设计</t>
+  </si>
+  <si>
+    <t>火德意志</t>
+  </si>
+  <si>
+    <t>构造多面体</t>
+  </si>
+  <si>
+    <t>九灵金母的化身</t>
+  </si>
+  <si>
+    <t>中央加农炮</t>
+  </si>
+  <si>
+    <t>命约门徒</t>
+  </si>
+  <si>
+    <t>符文人狼</t>
+  </si>
+  <si>
+    <t>狼萨满</t>
+  </si>
+  <si>
+    <t>世界之树手杖</t>
+  </si>
+  <si>
+    <t>石环德鲁伊</t>
+  </si>
+  <si>
+    <t>噬龙花</t>
+  </si>
+  <si>
+    <t>捕蝇草女巫</t>
+  </si>
+  <si>
+    <t>大地语者</t>
+  </si>
+  <si>
+    <t>织星者</t>
+  </si>
+  <si>
+    <t>星光秘录</t>
+  </si>
+  <si>
+    <t>阿罗汉门徒</t>
+  </si>
+  <si>
+    <t>智慧启示</t>
+  </si>
+  <si>
+    <t>歧路先知</t>
+  </si>
+  <si>
+    <t>上古雌龙之泪</t>
+  </si>
+  <si>
+    <t>寺院图书馆长</t>
+  </si>
+  <si>
+    <t>生命之水</t>
+  </si>
+  <si>
+    <t>阿罗汉圣堂武士</t>
+  </si>
+  <si>
+    <t>亚拉拉特方舟</t>
+  </si>
+  <si>
+    <t>双生的阿卡拉</t>
+  </si>
+  <si>
+    <t>受膏者</t>
+  </si>
+  <si>
+    <t>时光黎明之碑</t>
+  </si>
+  <si>
+    <t>恩利尔之遗</t>
+  </si>
+  <si>
+    <t>裸眼苦修士</t>
+  </si>
+  <si>
+    <t>埃利都统御者</t>
+  </si>
+  <si>
+    <t>全视之眼</t>
+  </si>
+  <si>
+    <t>末日审判</t>
+  </si>
+  <si>
+    <t>无双的奥扎</t>
+  </si>
+  <si>
+    <t>雅赫维的权柄</t>
+  </si>
+  <si>
+    <t>大师达萨</t>
+  </si>
+  <si>
+    <t>神官授命</t>
+  </si>
+  <si>
+    <t>虚空门徒</t>
+  </si>
+  <si>
+    <t>落日晖芒</t>
+  </si>
+  <si>
+    <t>矛刺夜叉</t>
+  </si>
+  <si>
+    <t>艾德乔之子</t>
+  </si>
+  <si>
+    <t>暗影之星</t>
+  </si>
+  <si>
+    <t>塞勒凯特的愤怒</t>
+  </si>
+  <si>
+    <t>黑色守望者之影</t>
+  </si>
+  <si>
+    <t>赛特之影</t>
+  </si>
+  <si>
+    <t>断崖仲裁者</t>
+  </si>
+  <si>
+    <t>凯布里的印记</t>
+  </si>
+  <si>
+    <t>屠魔者</t>
+  </si>
+  <si>
+    <t>胡狼引路人</t>
+  </si>
+  <si>
+    <t>虚空利刃</t>
+  </si>
+  <si>
+    <t>哈默迪的守护</t>
+  </si>
+  <si>
+    <t>虚空猎杀者</t>
+  </si>
+  <si>
+    <t>混沌巨蛇</t>
+  </si>
+  <si>
+    <t>妖刀村正</t>
+  </si>
+  <si>
     <t>技能组</t>
   </si>
   <si>
@@ -458,6 +834,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>增加</t>
     </r>
     <r>
@@ -594,67 +976,47 @@
     <t>每回合可以用N钱换X 分</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BornSkill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DieSkill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗战力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗金钱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostRes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostPower</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Race</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>1圣贤 Enlightened</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>2机械  Mechana</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>3虚空  Void</t>
+  </si>
+  <si>
+    <t>4命约Lifebound</t>
+  </si>
+  <si>
+    <t>5怪物</t>
+  </si>
+  <si>
+    <t>6法师</t>
+  </si>
+  <si>
+    <t>7士兵</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,9 +1040,169 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -689,24 +1211,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,13 +1226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,36 +1250,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -770,13 +1473,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,39 +1787,206 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1080,508 +2248,2161 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9" style="20"/>
+    <col min="4" max="4" width="9" style="19"/>
+    <col min="5" max="9" width="9" style="20"/>
+    <col min="10" max="10" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:12">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:12">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:12">
+      <c r="A3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28">
+        <v>6</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
+        <v>6</v>
+      </c>
+      <c r="F5" s="28">
+        <v>3</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>7</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="28">
+        <v>4</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>7</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="28">
+        <v>5</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" spans="1:12">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="32">
+        <v>6</v>
+      </c>
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+      <c r="E9" s="32">
+        <v>5</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32">
+        <v>3</v>
+      </c>
+      <c r="H9" s="32">
+        <v>2</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="27" spans="1:12">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="32">
+        <v>6</v>
+      </c>
+      <c r="D10" s="33">
+        <v>3</v>
+      </c>
+      <c r="E10" s="32">
+        <v>5</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32">
+        <v>3</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" spans="1:12">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="32">
+        <v>6</v>
+      </c>
+      <c r="D11" s="33">
+        <v>3</v>
+      </c>
+      <c r="E11" s="32">
+        <v>5</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32">
+        <v>3</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:12">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="32">
+        <v>6</v>
+      </c>
+      <c r="D12" s="33">
+        <v>3</v>
+      </c>
+      <c r="E12" s="32">
+        <v>5</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32">
+        <v>4</v>
+      </c>
+      <c r="H12" s="32">
+        <v>3</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" spans="1:12">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="32">
+        <v>6</v>
+      </c>
+      <c r="D13" s="33">
+        <v>3</v>
+      </c>
+      <c r="E13" s="32">
+        <v>5</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32">
+        <v>4</v>
+      </c>
+      <c r="H13" s="32">
+        <v>4</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:12">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="32">
+        <v>6</v>
+      </c>
+      <c r="D14" s="33">
+        <v>3</v>
+      </c>
+      <c r="E14" s="32">
+        <v>5</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32">
+        <v>5</v>
+      </c>
+      <c r="H14" s="32">
+        <v>5</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" spans="1:12">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="32">
+        <v>6</v>
+      </c>
+      <c r="D15" s="33">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32">
+        <v>5</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32">
+        <v>5</v>
+      </c>
+      <c r="H15" s="32">
+        <v>3</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:12">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="32">
+        <v>6</v>
+      </c>
+      <c r="D16" s="33">
+        <v>3</v>
+      </c>
+      <c r="E16" s="32">
+        <v>5</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32">
+        <v>6</v>
+      </c>
+      <c r="H16" s="32">
+        <v>5</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:12">
+      <c r="A17" s="12">
+        <v>14</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="32">
+        <v>6</v>
+      </c>
+      <c r="D17" s="33">
+        <v>3</v>
+      </c>
+      <c r="E17" s="32">
+        <v>5</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32">
+        <v>6</v>
+      </c>
+      <c r="H17" s="32">
+        <v>3</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:12">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="32">
+        <v>6</v>
+      </c>
+      <c r="D18" s="33">
+        <v>3</v>
+      </c>
+      <c r="E18" s="32">
+        <v>5</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
+        <v>7</v>
+      </c>
+      <c r="H18" s="32">
+        <v>4</v>
+      </c>
+      <c r="I18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A19" s="13">
+        <v>16</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="35">
+        <v>6</v>
+      </c>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>2</v>
+      </c>
+      <c r="F19" s="35">
+        <v>1</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A20" s="13">
+        <v>17</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="35">
+        <v>6</v>
+      </c>
+      <c r="D20" s="36">
+        <v>2</v>
+      </c>
+      <c r="E20" s="35">
+        <v>2</v>
+      </c>
+      <c r="F20" s="35">
+        <v>3</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35">
+        <v>3</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="35">
+        <v>6</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35">
+        <v>2</v>
+      </c>
+      <c r="F21" s="35">
+        <v>3</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35">
+        <v>2</v>
+      </c>
+      <c r="I21" s="35">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A22" s="13">
+        <v>19</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="35">
+        <v>6</v>
+      </c>
+      <c r="D22" s="36">
+        <v>2</v>
+      </c>
+      <c r="E22" s="35">
+        <v>2</v>
+      </c>
+      <c r="F22" s="35">
+        <v>4</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35">
+        <v>4</v>
+      </c>
+      <c r="I22" s="35">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="35">
+        <v>6</v>
+      </c>
+      <c r="D23" s="36">
+        <v>1</v>
+      </c>
+      <c r="E23" s="35">
+        <v>2</v>
+      </c>
+      <c r="F23" s="35">
+        <v>4</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35">
+        <v>2</v>
+      </c>
+      <c r="I23" s="35">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="35">
+        <v>6</v>
+      </c>
+      <c r="D24" s="36">
+        <v>1</v>
+      </c>
+      <c r="E24" s="35">
+        <v>2</v>
+      </c>
+      <c r="F24" s="35">
+        <v>4</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35">
+        <v>2</v>
+      </c>
+      <c r="I24" s="35">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="35">
+        <v>6</v>
+      </c>
+      <c r="D25" s="36">
+        <v>2</v>
+      </c>
+      <c r="E25" s="35">
+        <v>2</v>
+      </c>
+      <c r="F25" s="35">
+        <v>5</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35">
+        <v>5</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A26" s="13">
+        <v>23</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="35">
+        <v>6</v>
+      </c>
+      <c r="D26" s="36">
+        <v>2</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2</v>
+      </c>
+      <c r="F26" s="35">
+        <v>6</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35">
+        <v>6</v>
+      </c>
+      <c r="I26" s="35">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" s="13" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A27" s="13">
+        <v>24</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="35">
+        <v>6</v>
+      </c>
+      <c r="D27" s="36">
+        <v>2</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2</v>
+      </c>
+      <c r="F27" s="35">
+        <v>7</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35">
+        <v>7</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" s="14" customFormat="1" ht="27" spans="1:12">
+      <c r="A28" s="14">
+        <v>25</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="38">
+        <v>6</v>
+      </c>
+      <c r="D28" s="39">
+        <v>2</v>
+      </c>
+      <c r="E28" s="38">
+        <v>2</v>
+      </c>
+      <c r="F28" s="38">
+        <v>8</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38">
+        <v>8</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A29" s="15">
+        <v>26</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="41">
+        <v>6</v>
+      </c>
+      <c r="D29" s="42">
+        <v>1</v>
+      </c>
+      <c r="E29" s="41">
+        <v>4</v>
+      </c>
+      <c r="F29" s="41">
+        <v>1</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41">
+        <v>1</v>
+      </c>
+      <c r="I29" s="41">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A30" s="15">
+        <v>27</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="41">
+        <v>6</v>
+      </c>
+      <c r="D30" s="42">
+        <v>1</v>
+      </c>
+      <c r="E30" s="41">
+        <v>4</v>
+      </c>
+      <c r="F30" s="41">
+        <v>3</v>
+      </c>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
+      <c r="I30" s="41">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="41">
+        <v>6</v>
+      </c>
+      <c r="D31" s="42">
+        <v>1</v>
+      </c>
+      <c r="E31" s="41">
+        <v>4</v>
+      </c>
+      <c r="F31" s="41">
+        <v>3</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41">
+        <v>1</v>
+      </c>
+      <c r="I31" s="41">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A32" s="15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="41">
+        <v>6</v>
+      </c>
+      <c r="D32" s="42">
+        <v>2</v>
+      </c>
+      <c r="E32" s="41">
+        <v>4</v>
+      </c>
+      <c r="F32" s="41">
+        <v>4</v>
+      </c>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41">
+        <v>2</v>
+      </c>
+      <c r="I32" s="41">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A33" s="15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="41">
+        <v>6</v>
+      </c>
+      <c r="D33" s="42">
+        <v>1</v>
+      </c>
+      <c r="E33" s="41">
+        <v>4</v>
+      </c>
+      <c r="F33" s="41">
+        <v>4</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41">
+        <v>3</v>
+      </c>
+      <c r="I33" s="41">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A34" s="15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="41">
+        <v>6</v>
+      </c>
+      <c r="D34" s="42">
+        <v>2</v>
+      </c>
+      <c r="E34" s="41">
+        <v>4</v>
+      </c>
+      <c r="F34" s="41">
+        <v>5</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41">
+        <v>2</v>
+      </c>
+      <c r="I34" s="41">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="41">
+        <v>6</v>
+      </c>
+      <c r="D35" s="42">
+        <v>1</v>
+      </c>
+      <c r="E35" s="41">
+        <v>4</v>
+      </c>
+      <c r="F35" s="41">
+        <v>5</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41">
+        <v>2</v>
+      </c>
+      <c r="I35" s="41">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A36" s="15">
+        <v>33</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="41">
+        <v>6</v>
+      </c>
+      <c r="D36" s="42">
+        <v>1</v>
+      </c>
+      <c r="E36" s="41">
+        <v>4</v>
+      </c>
+      <c r="F36" s="41">
+        <v>6</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41">
+        <v>3</v>
+      </c>
+      <c r="I36" s="41">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" s="15" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A37" s="15">
+        <v>34</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="41">
+        <v>6</v>
+      </c>
+      <c r="D37" s="42">
+        <v>1</v>
+      </c>
+      <c r="E37" s="41">
+        <v>4</v>
+      </c>
+      <c r="F37" s="41">
+        <v>7</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41">
+        <v>4</v>
+      </c>
+      <c r="I37" s="41">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" s="16" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="44">
+        <v>6</v>
+      </c>
+      <c r="D38" s="45">
+        <v>1</v>
+      </c>
+      <c r="E38" s="44">
+        <v>1</v>
+      </c>
+      <c r="F38" s="44">
+        <v>1</v>
+      </c>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44">
+        <v>1</v>
+      </c>
+      <c r="I38" s="44">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A39" s="17">
+        <v>36</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="47">
+        <v>6</v>
+      </c>
+      <c r="D39" s="48">
+        <v>1</v>
+      </c>
+      <c r="E39" s="47">
+        <v>1</v>
+      </c>
+      <c r="F39" s="47">
+        <v>2</v>
+      </c>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47">
+        <v>1</v>
+      </c>
+      <c r="I39" s="47">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A40" s="17">
+        <v>37</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="47">
+        <v>6</v>
+      </c>
+      <c r="D40" s="48">
+        <v>1</v>
+      </c>
+      <c r="E40" s="47">
+        <v>1</v>
+      </c>
+      <c r="F40" s="47">
+        <v>2</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47">
+        <v>1</v>
+      </c>
+      <c r="I40" s="47">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A41" s="17">
+        <v>38</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="47">
+        <v>6</v>
+      </c>
+      <c r="D41" s="48">
+        <v>1</v>
+      </c>
+      <c r="E41" s="47">
+        <v>1</v>
+      </c>
+      <c r="F41" s="47">
+        <v>4</v>
+      </c>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47">
+        <v>3</v>
+      </c>
+      <c r="I41" s="47">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="42" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A42" s="17">
+        <v>39</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C42" s="47">
+        <v>6</v>
+      </c>
+      <c r="D42" s="48">
+        <v>1</v>
+      </c>
+      <c r="E42" s="47">
+        <v>1</v>
+      </c>
+      <c r="F42" s="47">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G42" s="47"/>
+      <c r="H42" s="47">
+        <v>2</v>
+      </c>
+      <c r="I42" s="47">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A43" s="17">
+        <v>40</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="47">
+        <v>6</v>
+      </c>
+      <c r="D43" s="48">
+        <v>2</v>
+      </c>
+      <c r="E43" s="47">
+        <v>1</v>
+      </c>
+      <c r="F43" s="47">
+        <v>5</v>
+      </c>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47">
+        <v>2</v>
+      </c>
+      <c r="I43" s="47">
+        <v>0</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A44" s="17">
+        <v>41</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="47">
+        <v>6</v>
+      </c>
+      <c r="D44" s="48">
+        <v>1</v>
+      </c>
+      <c r="E44" s="47">
+        <v>1</v>
+      </c>
+      <c r="F44" s="47">
+        <v>5</v>
+      </c>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47">
+        <v>2</v>
+      </c>
+      <c r="I44" s="47">
+        <v>0</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A45" s="17">
+        <v>42</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="47">
+        <v>6</v>
+      </c>
+      <c r="D45" s="48">
+        <v>2</v>
+      </c>
+      <c r="E45" s="47">
+        <v>1</v>
+      </c>
+      <c r="F45" s="47">
+        <v>6</v>
+      </c>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47">
+        <v>2</v>
+      </c>
+      <c r="I45" s="47">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="10" t="s">
+    </row>
+    <row r="46" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A46" s="17">
+        <v>43</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="47">
+        <v>6</v>
+      </c>
+      <c r="D46" s="48">
+        <v>1</v>
+      </c>
+      <c r="E46" s="47">
+        <v>1</v>
+      </c>
+      <c r="F46" s="47">
+        <v>6</v>
+      </c>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47">
+        <v>3</v>
+      </c>
+      <c r="I46" s="47">
+        <v>0</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" s="17" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A47" s="17">
+        <v>44</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="47">
+        <v>6</v>
+      </c>
+      <c r="D47" s="48">
+        <v>1</v>
+      </c>
+      <c r="E47" s="47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="47">
+        <v>7</v>
+      </c>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47">
+        <v>3</v>
+      </c>
+      <c r="I47" s="47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A48" s="18">
+        <v>45</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="50">
+        <v>6</v>
+      </c>
+      <c r="D48" s="51">
+        <v>1</v>
+      </c>
+      <c r="E48" s="50">
+        <v>3</v>
+      </c>
+      <c r="F48" s="50">
+        <v>1</v>
+      </c>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50">
+        <v>1</v>
+      </c>
+      <c r="I48" s="50">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A49" s="18">
+        <v>46</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="50">
+        <v>6</v>
+      </c>
+      <c r="D49" s="51">
+        <v>1</v>
+      </c>
+      <c r="E49" s="50">
+        <v>3</v>
+      </c>
+      <c r="F49" s="50">
+        <v>2</v>
+      </c>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50">
+        <v>1</v>
+      </c>
+      <c r="I49" s="50">
+        <v>0</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A50" s="18">
+        <v>47</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="50">
+        <v>6</v>
+      </c>
+      <c r="D50" s="51">
+        <v>2</v>
+      </c>
+      <c r="E50" s="50">
+        <v>3</v>
+      </c>
+      <c r="F50" s="50">
+        <v>3</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" s="18" customFormat="1" ht="27" spans="1:12">
+      <c r="A51" s="18">
+        <v>48</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="50">
+        <v>6</v>
+      </c>
+      <c r="D51" s="51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="50">
+        <v>3</v>
+      </c>
+      <c r="F51" s="50">
+        <v>3</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50">
+        <v>1</v>
+      </c>
+      <c r="I51" s="50">
+        <v>0</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A52" s="18">
+        <v>49</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="50">
+        <v>6</v>
+      </c>
+      <c r="D52" s="51">
+        <v>1</v>
+      </c>
+      <c r="E52" s="50">
+        <v>3</v>
+      </c>
+      <c r="F52" s="50">
+        <v>4</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50">
+        <v>1</v>
+      </c>
+      <c r="I52" s="50">
+        <v>0</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A53" s="18">
+        <v>50</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="50">
+        <v>6</v>
+      </c>
+      <c r="D53" s="51">
+        <v>1</v>
+      </c>
+      <c r="E53" s="50">
+        <v>3</v>
+      </c>
+      <c r="F53" s="50">
+        <v>4</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50">
+        <v>2</v>
+      </c>
+      <c r="I53" s="50">
+        <v>0</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A54" s="18">
+        <v>51</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="50">
+        <v>6</v>
+      </c>
+      <c r="D54" s="51">
+        <v>2</v>
+      </c>
+      <c r="E54" s="50">
+        <v>3</v>
+      </c>
+      <c r="F54" s="50">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="G54" s="50"/>
+      <c r="H54" s="50">
+        <v>3</v>
+      </c>
+      <c r="I54" s="50">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A55" s="18">
+        <v>52</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="50">
+        <v>6</v>
+      </c>
+      <c r="D55" s="51">
+        <v>1</v>
+      </c>
+      <c r="E55" s="50">
+        <v>3</v>
+      </c>
+      <c r="F55" s="50">
+        <v>6</v>
+      </c>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50">
+        <v>3</v>
+      </c>
+      <c r="I55" s="50">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" s="18" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A56" s="18">
+        <v>53</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="50">
+        <v>6</v>
+      </c>
+      <c r="D56" s="51">
+        <v>2</v>
+      </c>
+      <c r="E56" s="50">
+        <v>3</v>
+      </c>
+      <c r="F56" s="50">
         <v>7</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>88</v>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50">
+        <v>4</v>
+      </c>
+      <c r="I56" s="50">
+        <v>0</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11">
       <c r="D4" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11">
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>127</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11">
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>132</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11">
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>134</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>138</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>140</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8">
+      <c r="G10" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8">
+      <c r="G11" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="G12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>57</v>
+        <v>153</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>156</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>63</v>
+      <c r="B17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="G21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="G24" s="6" t="s">
-        <v>68</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="G28" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E9" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12630"/>
+    <workbookView xWindow="520" yWindow="1000" windowWidth="38400" windowHeight="20120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="卡牌设计" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -414,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="185">
   <si>
     <t>int</t>
   </si>
@@ -1005,18 +1010,24 @@
   <si>
     <t>7士兵</t>
   </si>
+  <si>
+    <t>5,11</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,14</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,150 +1073,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1216,8 +1083,25 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,13 +1116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,222 +1134,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1475,309 +1197,67 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.25"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.25"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.25"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.25"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,58 +1415,14 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2248,28 +1684,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="20"/>
     <col min="4" max="4" width="9" style="19"/>
     <col min="5" max="9" width="9" style="20"/>
-    <col min="10" max="10" width="13.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="11" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +1735,7 @@
       <c r="I1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="21" t="s">
@@ -2307,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" s="11" customFormat="1">
       <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +1773,7 @@
       <c r="I2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="53" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="52" t="s">
@@ -2345,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:12">
+    <row r="3" spans="1:12" s="11" customFormat="1">
       <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
@@ -2373,7 +1811,7 @@
       <c r="I3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="52" t="s">
@@ -2383,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="16.5" spans="1:12">
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="16">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2411,11 +1849,12 @@
       <c r="I4" s="28">
         <v>0</v>
       </c>
+      <c r="J4" s="29"/>
       <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:12">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="16">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2443,11 +1882,12 @@
       <c r="I5" s="28">
         <v>0</v>
       </c>
+      <c r="J5" s="29"/>
       <c r="L5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:12">
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="16">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2475,14 +1915,14 @@
       <c r="I6" s="28">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="29">
         <v>1</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:12">
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="16">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2510,11 +1950,12 @@
       <c r="I7" s="28">
         <v>0</v>
       </c>
+      <c r="J7" s="29"/>
       <c r="L7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:12">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="16">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2542,13 +1983,12 @@
       <c r="I8" s="28">
         <v>0</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="29"/>
       <c r="L8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="1:12">
+    <row r="9" spans="1:12" s="12" customFormat="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2574,11 +2014,14 @@
       <c r="I9" s="32">
         <v>0</v>
       </c>
+      <c r="J9" s="33">
+        <v>12</v>
+      </c>
       <c r="L9" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="27" spans="1:12">
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="28">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2604,11 +2047,12 @@
       <c r="I10" s="32">
         <v>0</v>
       </c>
+      <c r="J10" s="33"/>
       <c r="L10" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" spans="1:12">
+    <row r="11" spans="1:12" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2634,11 +2078,14 @@
       <c r="I11" s="32">
         <v>0</v>
       </c>
+      <c r="J11" s="33">
+        <v>1</v>
+      </c>
       <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" spans="1:12">
+    <row r="12" spans="1:12" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -2664,11 +2111,14 @@
       <c r="I12" s="32">
         <v>0</v>
       </c>
+      <c r="J12" s="33">
+        <v>30</v>
+      </c>
       <c r="L12" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" spans="1:12">
+    <row r="13" spans="1:12" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -2694,11 +2144,14 @@
       <c r="I13" s="32">
         <v>0</v>
       </c>
+      <c r="J13" s="33">
+        <v>16</v>
+      </c>
       <c r="L13" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" spans="1:12">
+    <row r="14" spans="1:12" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -2724,11 +2177,14 @@
       <c r="I14" s="32">
         <v>0</v>
       </c>
+      <c r="J14" s="33">
+        <v>31</v>
+      </c>
       <c r="L14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:12">
+    <row r="15" spans="1:12" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -2754,11 +2210,12 @@
       <c r="I15" s="32">
         <v>0</v>
       </c>
+      <c r="J15" s="33"/>
       <c r="L15" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:12">
+    <row r="16" spans="1:12" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2784,11 +2241,12 @@
       <c r="I16" s="32">
         <v>0</v>
       </c>
+      <c r="J16" s="33"/>
       <c r="L16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:12">
+    <row r="17" spans="1:12" s="12" customFormat="1">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2814,11 +2272,14 @@
       <c r="I17" s="32">
         <v>0</v>
       </c>
+      <c r="J17" s="33">
+        <v>20</v>
+      </c>
       <c r="L17" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" spans="1:12">
+    <row r="18" spans="1:12" s="12" customFormat="1">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2844,11 +2305,14 @@
       <c r="I18" s="32">
         <v>0</v>
       </c>
+      <c r="J18" s="33">
+        <v>21</v>
+      </c>
       <c r="L18" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -2874,11 +2338,12 @@
       <c r="I19" s="35">
         <v>0</v>
       </c>
+      <c r="J19" s="35"/>
       <c r="L19" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -2904,11 +2369,12 @@
       <c r="I20" s="35">
         <v>0</v>
       </c>
+      <c r="J20" s="35"/>
       <c r="L20" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -2934,11 +2400,12 @@
       <c r="I21" s="35">
         <v>0</v>
       </c>
+      <c r="J21" s="35"/>
       <c r="L21" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -2964,11 +2431,12 @@
       <c r="I22" s="35">
         <v>0</v>
       </c>
+      <c r="J22" s="35"/>
       <c r="L22" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="23" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -2994,11 +2462,12 @@
       <c r="I23" s="35">
         <v>0</v>
       </c>
+      <c r="J23" s="35"/>
       <c r="L23" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3024,11 +2493,12 @@
       <c r="I24" s="35">
         <v>0</v>
       </c>
+      <c r="J24" s="35"/>
       <c r="L24" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3054,11 +2524,12 @@
       <c r="I25" s="35">
         <v>0</v>
       </c>
+      <c r="J25" s="35"/>
       <c r="L25" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3084,11 +2555,12 @@
       <c r="I26" s="35">
         <v>0</v>
       </c>
+      <c r="J26" s="35"/>
       <c r="L26" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" s="13" customFormat="1" ht="16.5" spans="1:12">
+    <row r="27" spans="1:12" s="13" customFormat="1" ht="16">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3114,11 +2586,12 @@
       <c r="I27" s="35">
         <v>0</v>
       </c>
+      <c r="J27" s="35"/>
       <c r="L27" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" s="14" customFormat="1" ht="27" spans="1:12">
+    <row r="28" spans="1:12" s="14" customFormat="1" ht="28">
       <c r="A28" s="14">
         <v>25</v>
       </c>
@@ -3144,11 +2617,12 @@
       <c r="I28" s="38">
         <v>0</v>
       </c>
+      <c r="J28" s="38"/>
       <c r="L28" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="29" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A29" s="15">
         <v>26</v>
       </c>
@@ -3174,11 +2648,12 @@
       <c r="I29" s="41">
         <v>0</v>
       </c>
+      <c r="J29" s="41"/>
       <c r="L29" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="30" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A30" s="15">
         <v>27</v>
       </c>
@@ -3204,11 +2679,12 @@
       <c r="I30" s="41">
         <v>0</v>
       </c>
+      <c r="J30" s="41"/>
       <c r="L30" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="31" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A31" s="15">
         <v>28</v>
       </c>
@@ -3234,11 +2710,14 @@
       <c r="I31" s="41">
         <v>0</v>
       </c>
+      <c r="J31" s="41">
+        <v>1</v>
+      </c>
       <c r="L31" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="32" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A32" s="15">
         <v>29</v>
       </c>
@@ -3264,11 +2743,12 @@
       <c r="I32" s="41">
         <v>0</v>
       </c>
+      <c r="J32" s="41"/>
       <c r="L32" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="33" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A33" s="15">
         <v>30</v>
       </c>
@@ -3294,11 +2774,14 @@
       <c r="I33" s="41">
         <v>0</v>
       </c>
+      <c r="J33" s="41">
+        <v>25</v>
+      </c>
       <c r="L33" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="34" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A34" s="15">
         <v>31</v>
       </c>
@@ -3324,11 +2807,12 @@
       <c r="I34" s="41">
         <v>0</v>
       </c>
+      <c r="J34" s="41"/>
       <c r="L34" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="35" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A35" s="15">
         <v>32</v>
       </c>
@@ -3354,11 +2838,14 @@
       <c r="I35" s="41">
         <v>0</v>
       </c>
+      <c r="J35" s="41">
+        <v>1</v>
+      </c>
       <c r="L35" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="36" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A36" s="15">
         <v>33</v>
       </c>
@@ -3384,11 +2871,12 @@
       <c r="I36" s="41">
         <v>0</v>
       </c>
+      <c r="J36" s="41"/>
       <c r="L36" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" s="15" customFormat="1" ht="16.5" spans="1:12">
+    <row r="37" spans="1:12" s="15" customFormat="1" ht="16">
       <c r="A37" s="15">
         <v>34</v>
       </c>
@@ -3414,11 +2902,14 @@
       <c r="I37" s="41">
         <v>0</v>
       </c>
+      <c r="J37" s="41">
+        <v>22</v>
+      </c>
       <c r="L37" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" s="16" customFormat="1" ht="16.5" spans="1:12">
+    <row r="38" spans="1:12" s="16" customFormat="1" ht="16">
       <c r="A38" s="16">
         <v>35</v>
       </c>
@@ -3444,11 +2935,14 @@
       <c r="I38" s="44">
         <v>0</v>
       </c>
+      <c r="J38" s="44">
+        <v>1</v>
+      </c>
       <c r="L38" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="39" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A39" s="17">
         <v>36</v>
       </c>
@@ -3474,11 +2968,14 @@
       <c r="I39" s="47">
         <v>0</v>
       </c>
+      <c r="J39" s="47" t="s">
+        <v>183</v>
+      </c>
       <c r="L39" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="40" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A40" s="17">
         <v>37</v>
       </c>
@@ -3504,11 +3001,14 @@
       <c r="I40" s="47">
         <v>0</v>
       </c>
+      <c r="J40" s="47" t="s">
+        <v>184</v>
+      </c>
       <c r="L40" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="41" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A41" s="17">
         <v>38</v>
       </c>
@@ -3534,11 +3034,14 @@
       <c r="I41" s="47">
         <v>0</v>
       </c>
+      <c r="J41" s="47">
+        <v>24</v>
+      </c>
       <c r="L41" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="42" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A42" s="17">
         <v>39</v>
       </c>
@@ -3564,11 +3067,12 @@
       <c r="I42" s="47">
         <v>0</v>
       </c>
+      <c r="J42" s="47"/>
       <c r="L42" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="43" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A43" s="17">
         <v>40</v>
       </c>
@@ -3594,11 +3098,12 @@
       <c r="I43" s="47">
         <v>0</v>
       </c>
+      <c r="J43" s="47"/>
       <c r="L43" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="44" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A44" s="17">
         <v>41</v>
       </c>
@@ -3624,11 +3129,14 @@
       <c r="I44" s="47">
         <v>0</v>
       </c>
+      <c r="J44" s="47">
+        <v>5</v>
+      </c>
       <c r="L44" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="45" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A45" s="17">
         <v>42</v>
       </c>
@@ -3654,11 +3162,14 @@
       <c r="I45" s="47">
         <v>0</v>
       </c>
+      <c r="J45" s="47">
+        <v>4</v>
+      </c>
       <c r="L45" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="46" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A46" s="17">
         <v>43</v>
       </c>
@@ -3684,11 +3195,14 @@
       <c r="I46" s="47">
         <v>0</v>
       </c>
+      <c r="J46" s="47">
+        <v>23</v>
+      </c>
       <c r="L46" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" s="17" customFormat="1" ht="16.5" spans="1:12">
+    <row r="47" spans="1:12" s="17" customFormat="1" ht="16">
       <c r="A47" s="17">
         <v>44</v>
       </c>
@@ -3714,11 +3228,14 @@
       <c r="I47" s="47">
         <v>0</v>
       </c>
+      <c r="J47" s="47">
+        <v>7</v>
+      </c>
       <c r="L47" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="48" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -3744,11 +3261,14 @@
       <c r="I48" s="50">
         <v>0</v>
       </c>
+      <c r="J48" s="50">
+        <v>18</v>
+      </c>
       <c r="L48" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="49" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -3774,11 +3294,14 @@
       <c r="I49" s="50">
         <v>0</v>
       </c>
+      <c r="J49" s="50">
+        <v>1</v>
+      </c>
       <c r="L49" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="50" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -3804,11 +3327,12 @@
       <c r="I50" s="50">
         <v>0</v>
       </c>
+      <c r="J50" s="50"/>
       <c r="L50" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" s="18" customFormat="1" ht="27" spans="1:12">
+    <row r="51" spans="1:12" s="18" customFormat="1" ht="28">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -3834,11 +3358,14 @@
       <c r="I51" s="50">
         <v>0</v>
       </c>
+      <c r="J51" s="50">
+        <v>18</v>
+      </c>
       <c r="L51" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="52" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -3864,11 +3391,14 @@
       <c r="I52" s="50">
         <v>0</v>
       </c>
+      <c r="J52" s="50" t="s">
+        <v>182</v>
+      </c>
       <c r="L52" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="53" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A53" s="18">
         <v>50</v>
       </c>
@@ -3894,11 +3424,12 @@
       <c r="I53" s="50">
         <v>0</v>
       </c>
+      <c r="J53" s="50"/>
       <c r="L53" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="54" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -3924,11 +3455,12 @@
       <c r="I54" s="50">
         <v>0</v>
       </c>
+      <c r="J54" s="50"/>
       <c r="L54" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="55" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -3954,11 +3486,12 @@
       <c r="I55" s="50">
         <v>0</v>
       </c>
+      <c r="J55" s="50"/>
       <c r="L55" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" s="18" customFormat="1" ht="16.5" spans="1:12">
+    <row r="56" spans="1:12" s="18" customFormat="1" ht="16">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -3984,39 +3517,44 @@
       <c r="I56" s="50">
         <v>0</v>
       </c>
+      <c r="J56" s="50"/>
       <c r="L56" s="18" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4053,7 +3591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>117</v>
       </c>
@@ -4073,7 +3611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="4:11">
+    <row r="4" spans="1:11">
       <c r="D4" t="s">
         <v>123</v>
       </c>
@@ -4087,7 +3625,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="5:11">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>127</v>
       </c>
@@ -4098,7 +3636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="5:11">
+    <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>130</v>
       </c>
@@ -4112,7 +3650,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="5:11">
+    <row r="7" spans="1:11">
       <c r="E7" t="s">
         <v>134</v>
       </c>
@@ -4123,7 +3661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>137</v>
       </c>
@@ -4140,7 +3678,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -4160,7 +3698,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="7:8">
+    <row r="10" spans="1:11">
       <c r="G10" s="3" t="s">
         <v>147</v>
       </c>
@@ -4168,7 +3706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="7:8">
+    <row r="11" spans="1:11">
       <c r="G11" s="3" t="s">
         <v>148</v>
       </c>
@@ -4176,17 +3714,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="7:7">
+    <row r="12" spans="1:11">
       <c r="G12" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="1:11">
       <c r="G13" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:11">
       <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
@@ -4194,7 +3732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>152</v>
       </c>
@@ -4208,7 +3746,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>156</v>
       </c>
@@ -4233,7 +3771,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="2:8">
       <c r="G18" s="3" t="s">
         <v>161</v>
       </c>
@@ -4241,22 +3779,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="2:8">
       <c r="G21" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="2:8">
       <c r="G22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="2:8">
       <c r="G23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
+    <row r="24" spans="2:8">
       <c r="G24" s="7" t="s">
         <v>165</v>
       </c>
@@ -4264,55 +3802,59 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
+    <row r="25" spans="2:8">
       <c r="G25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="2:8">
       <c r="G26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="2:8">
       <c r="G27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="2:8">
       <c r="G28" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="7:7">
+    <row r="29" spans="2:8">
       <c r="G29" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="4:4">
+    <row r="1" spans="2:5">
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +3926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="2:5">
       <c r="D8">
         <v>6</v>
       </c>
@@ -4392,7 +3934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="2:5">
       <c r="D9">
         <v>7</v>
       </c>
@@ -4401,8 +3943,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1000" windowWidth="38400" windowHeight="20120"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="卡牌设计" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$56</definedName>
+  </definedNames>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -419,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>int</t>
   </si>
@@ -463,6 +461,9 @@
     <t>Des</t>
   </si>
   <si>
+    <t>NameDes</t>
+  </si>
+  <si>
     <t>Race</t>
   </si>
   <si>
@@ -487,253 +488,475 @@
     <t>祈祷</t>
   </si>
   <si>
+    <t>获得1点符文</t>
+  </si>
+  <si>
     <t>学徒</t>
   </si>
   <si>
     <t>秘术传承</t>
   </si>
   <si>
+    <t>获得2点符文</t>
+  </si>
+  <si>
     <t>秘教士</t>
   </si>
   <si>
     <t>搏斗</t>
   </si>
   <si>
+    <t>获得1点战力</t>
+  </si>
+  <si>
     <t>民兵</t>
   </si>
   <si>
     <t>聚合军势</t>
   </si>
   <si>
+    <t>获得2点战力</t>
+  </si>
+  <si>
     <t>重装步兵</t>
   </si>
   <si>
     <t>修格斯</t>
   </si>
   <si>
+    <t>奖励1点荣誉</t>
+  </si>
+  <si>
     <t>邪教徒</t>
   </si>
   <si>
     <t>魔蝠</t>
   </si>
   <si>
+    <t>12,74</t>
+  </si>
+  <si>
+    <t>奖励2点荣誉，然后你可以从中央牌库放逐一张卡牌</t>
+  </si>
+  <si>
     <t>萨麦尔的欺诈者</t>
   </si>
   <si>
+    <t>奖励1点荣誉以及1点符文</t>
+  </si>
+  <si>
     <t>痛苦之魂</t>
   </si>
   <si>
+    <t>70,1</t>
+  </si>
+  <si>
+    <t>奖励1点荣誉，抽一张牌</t>
+  </si>
+  <si>
     <t>腐蚀寡妇</t>
   </si>
   <si>
+    <t>75,30</t>
+  </si>
+  <si>
+    <t>奖励3点荣誉，每位对手选择他们场上的一个神器，放入弃牌堆</t>
+  </si>
+  <si>
     <t>失败的造物</t>
   </si>
   <si>
+    <t>76,16</t>
+  </si>
+  <si>
+    <t>奖励4点荣誉，然后你可以从中央牌库或者你的弃牌堆放逐1张卡牌</t>
+  </si>
+  <si>
     <t>海洋暴君</t>
   </si>
   <si>
+    <t>77,31</t>
+  </si>
+  <si>
+    <t>奖励5点荣誉，所有对手将场上的神器弃至剩余1张</t>
+  </si>
+  <si>
     <t>风之暴君</t>
   </si>
   <si>
+    <t>奖励3点荣誉以及3点符文</t>
+  </si>
+  <si>
     <t>大地暴君</t>
   </si>
   <si>
+    <t>77,5</t>
+  </si>
+  <si>
+    <t>获得5点荣誉，抽两张牌</t>
+  </si>
+  <si>
     <t>拉莱耶之主</t>
   </si>
   <si>
+    <t>75,20</t>
+  </si>
+  <si>
+    <t>奖励3点荣誉，你可以立即抽取对方的一张手牌，置入自己手牌，并且可以在本回合使用</t>
+  </si>
+  <si>
     <t>谎言公爵</t>
   </si>
   <si>
     <t>蠕动的混沌</t>
   </si>
   <si>
+    <t>无法被放逐，奖励4点荣誉，并且可以立即获得或击败中央牌库的任何一张牌</t>
+  </si>
+  <si>
     <t>堕落之神</t>
   </si>
   <si>
     <t>机械门徒</t>
   </si>
   <si>
+    <t>获得1点符文，或者获得1点战力</t>
+  </si>
+  <si>
     <t>挖掘机</t>
   </si>
   <si>
+    <t>每回合的第一个机械神器进场时，可以抽一张牌</t>
+  </si>
+  <si>
     <t>钢铁术士加尔</t>
   </si>
   <si>
+    <t>42,4</t>
+  </si>
+  <si>
+    <t>获得2点战力，当你控制两种或以上的派系的神器时，你可以抽一张牌</t>
+  </si>
+  <si>
     <t>火箭快递</t>
   </si>
   <si>
+    <t>你购买的机械神器可以立即进场生效</t>
+  </si>
+  <si>
     <t>宗布之弓</t>
   </si>
   <si>
+    <t>42,71</t>
+  </si>
+  <si>
+    <t>获得2点战力，你每控制一个派系的神器，获得1点荣誉</t>
+  </si>
+  <si>
     <t>构造石像</t>
   </si>
   <si>
     <t>鲜血枫林</t>
   </si>
   <si>
+    <t>62,94</t>
+  </si>
+  <si>
+    <t>获得2点符文，你在本回合下一个购买的神器费用减1</t>
+  </si>
+  <si>
     <t>构造僧侣</t>
   </si>
   <si>
     <t>陶唐司徒</t>
   </si>
   <si>
+    <t>本回合获得1点符文，你仅可以在购买机械神器时使用此符文。</t>
+  </si>
+  <si>
     <t>观造者祭坛</t>
   </si>
   <si>
     <t>青阳使者</t>
   </si>
   <si>
+    <t>本回合获得2点符文，你仅可以在购买机械神器时使用此符文。</t>
+  </si>
+  <si>
     <t>大设计</t>
   </si>
   <si>
     <t>火德意志</t>
   </si>
   <si>
+    <t>你可以将所有神器都视为机械神器</t>
+  </si>
+  <si>
     <t>构造多面体</t>
   </si>
   <si>
     <t>九灵金母的化身</t>
   </si>
   <si>
+    <t>你每控制的1个机械神器，都能在本回合增加你的1点战力</t>
+  </si>
+  <si>
     <t>中央加农炮</t>
   </si>
   <si>
     <t>命约门徒</t>
   </si>
   <si>
+    <t>获得1点符文，然后获得1点荣誉</t>
+  </si>
+  <si>
     <t>符文人狼</t>
   </si>
   <si>
+    <t>62,48</t>
+  </si>
+  <si>
+    <t>获得2点符文，如果本回合你之前曾经打出过命约英雄，获得2点战力</t>
+  </si>
+  <si>
     <t>狼萨满</t>
   </si>
   <si>
+    <t>60,1</t>
+  </si>
+  <si>
+    <t>获得1点符文，抽一张牌</t>
+  </si>
+  <si>
     <t>世界之树手杖</t>
   </si>
   <si>
+    <t>41,84</t>
+  </si>
+  <si>
+    <t>本回合获得1点战力，一回合仅一次，你可以使用4点符文换取3点荣誉</t>
+  </si>
+  <si>
     <t>石环德鲁伊</t>
   </si>
   <si>
+    <t>获得一个费用3符文以下的中央卡牌，并且置于牌库顶</t>
+  </si>
+  <si>
     <t>噬龙花</t>
   </si>
   <si>
+    <t>61,72</t>
+  </si>
+  <si>
+    <t>本回合获得1点符文。本回合你打出的每一种命约英雄，能使你获得1点荣誉。</t>
+  </si>
+  <si>
     <t>捕蝇草女巫</t>
   </si>
   <si>
+    <t>74,1</t>
+  </si>
+  <si>
+    <t>获得2点荣誉，抽一张牌</t>
+  </si>
+  <si>
     <t>大地语者</t>
   </si>
   <si>
+    <t>获得3点符文</t>
+  </si>
+  <si>
     <t>织星者</t>
   </si>
   <si>
+    <t>获得中央牌库的任意一个英雄，并且立即置于牌库顶</t>
+  </si>
+  <si>
     <t>星光秘录</t>
   </si>
   <si>
+    <t>抽一张牌</t>
+  </si>
+  <si>
     <t>阿罗汉门徒</t>
   </si>
   <si>
     <t>智慧启示</t>
   </si>
   <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>抽一张牌，你可以放逐中央牌库的一张卡牌</t>
+  </si>
+  <si>
     <t>歧路先知</t>
   </si>
   <si>
     <t>上古雌龙之泪</t>
   </si>
   <si>
+    <t>弃掉一张手牌，抽两张牌</t>
+  </si>
+  <si>
     <t>寺院图书馆长</t>
   </si>
   <si>
     <t>生命之水</t>
   </si>
   <si>
+    <t>击败一个战力小于等于4的怪物</t>
+  </si>
+  <si>
     <t>阿罗汉圣堂武士</t>
   </si>
   <si>
     <t>亚拉拉特方舟</t>
   </si>
   <si>
+    <t>复制你本回合打出的一张英雄牌</t>
+  </si>
+  <si>
     <t>双生的阿卡拉</t>
   </si>
   <si>
     <t>受膏者</t>
   </si>
   <si>
+    <t>放逐此神器，获得额外的一个回合。</t>
+  </si>
+  <si>
     <t>时光黎明之碑</t>
   </si>
   <si>
     <t>恩利尔之遗</t>
   </si>
   <si>
+    <t>抽两张牌</t>
+  </si>
+  <si>
     <t>裸眼苦修士</t>
   </si>
   <si>
     <t>埃利都统御者</t>
   </si>
   <si>
+    <t>本回合抽一张牌</t>
+  </si>
+  <si>
     <t>全视之眼</t>
   </si>
   <si>
     <t>末日审判</t>
   </si>
   <si>
+    <t>立即击败一个战力小于等于6点的怪物</t>
+  </si>
+  <si>
     <t>无双的奥扎</t>
   </si>
   <si>
     <t>雅赫维的权柄</t>
   </si>
   <si>
+    <t>抽3张牌</t>
+  </si>
+  <si>
     <t>大师达萨</t>
   </si>
   <si>
     <t>神官授命</t>
   </si>
   <si>
+    <t>60,18</t>
+  </si>
+  <si>
+    <t>获得1点符文，你可以放逐手牌或弃牌堆的1张牌</t>
+  </si>
+  <si>
     <t>虚空门徒</t>
   </si>
   <si>
     <t>落日晖芒</t>
   </si>
   <si>
+    <t>40,1</t>
+  </si>
+  <si>
+    <t>获得1点战力，抽一张牌</t>
+  </si>
+  <si>
     <t>矛刺夜叉</t>
   </si>
   <si>
     <t>艾德乔之子</t>
   </si>
   <si>
+    <t>本回合获得1点战力</t>
+  </si>
+  <si>
     <t>暗影之星</t>
   </si>
   <si>
     <t>塞勒凯特的愤怒</t>
   </si>
   <si>
+    <t>42,18</t>
+  </si>
+  <si>
+    <t>获得2点战力，你可以放逐手牌或者弃牌堆的1张卡牌</t>
+  </si>
+  <si>
     <t>黑色守望者之影</t>
   </si>
   <si>
     <t>赛特之影</t>
   </si>
   <si>
+    <t>5,11</t>
+  </si>
+  <si>
+    <t>抽两张牌，然后放逐一张手牌</t>
+  </si>
+  <si>
     <t>断崖仲裁者</t>
   </si>
   <si>
     <t>凯布里的印记</t>
   </si>
   <si>
+    <t>获得3点战力</t>
+  </si>
+  <si>
     <t>屠魔者</t>
   </si>
   <si>
     <t>胡狼引路人</t>
   </si>
   <si>
+    <t>41,73</t>
+  </si>
+  <si>
+    <t>本回合获得1点战力，本回合第一次击败怪物可获得额外的一点荣誉</t>
+  </si>
+  <si>
     <t>虚空利刃</t>
   </si>
   <si>
     <t>哈默迪的守护</t>
   </si>
   <si>
+    <t>获得4点战力</t>
+  </si>
+  <si>
     <t>虚空猎杀者</t>
   </si>
   <si>
     <t>混沌巨蛇</t>
+  </si>
+  <si>
+    <t>本回合获得3点战力</t>
   </si>
   <si>
     <t>妖刀村正</t>
@@ -1010,24 +1233,18 @@
   <si>
     <t>7士兵</t>
   </si>
-  <si>
-    <t>5,11</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
@@ -1067,9 +1291,172 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1083,25 +1470,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,13 +1486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,43 +1504,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39991454817346722"/>
+        <fgColor theme="5" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,12 +1540,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1197,28 +1735,28 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1240,24 +1778,266 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,28 +2074,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1325,7 +2111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1334,95 +2120,187 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1684,316 +2562,350 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="20"/>
-    <col min="4" max="4" width="9" style="19"/>
+    <col min="4" max="4" width="9" style="21"/>
     <col min="5" max="9" width="9" style="20"/>
-    <col min="10" max="10" width="13.6640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6666666666667" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.4" style="22" customWidth="1"/>
+    <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="11" customFormat="1">
-      <c r="A2" s="24" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:13">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:13">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1">
-      <c r="A3" s="24" t="s">
+      <c r="M2" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:13">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="16">
+    </row>
+    <row r="4" s="11" customFormat="1" ht="16.5" spans="1:13">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="24">
         <v>2</v>
       </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="28">
-        <v>6</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0</v>
-      </c>
-      <c r="G4" s="28">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="L4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="16">
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>6</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <v>60</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:13">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="24">
         <v>3</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28">
-        <v>6</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>6</v>
+      </c>
+      <c r="F5" s="24">
         <v>3</v>
       </c>
-      <c r="G5" s="28">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28">
-        <v>1</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="L5" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="16">
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <v>62</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:13">
       <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="28">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="B6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
         <v>7</v>
       </c>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="29">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="16">
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>40</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:13">
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="24">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
         <v>7</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="24">
         <v>2</v>
       </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
-        <v>1</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="L7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="16">
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>42</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:13">
       <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="24">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="30">
         <v>3</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="24">
         <v>5</v>
       </c>
-      <c r="F8" s="28">
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
         <v>2</v>
       </c>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="L8" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="12" customFormat="1">
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <v>70</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="22.5" spans="1:13">
       <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -2004,7 +2916,9 @@
       <c r="E9" s="32">
         <v>5</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
       <c r="G9" s="32">
         <v>3</v>
       </c>
@@ -2014,19 +2928,22 @@
       <c r="I9" s="32">
         <v>0</v>
       </c>
-      <c r="J9" s="33">
-        <v>12</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" ht="28">
+      <c r="K9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="27" spans="1:13">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" s="32">
         <v>6</v>
@@ -2037,7 +2954,9 @@
       <c r="E10" s="32">
         <v>5</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
       <c r="G10" s="32">
         <v>3</v>
       </c>
@@ -2047,17 +2966,23 @@
       <c r="I10" s="32">
         <v>0</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="L10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="12" customFormat="1">
+      <c r="J10" s="32"/>
+      <c r="K10" s="12">
+        <v>82</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" spans="1:13">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" s="32">
         <v>6</v>
@@ -2068,7 +2993,9 @@
       <c r="E11" s="32">
         <v>5</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
       <c r="G11" s="32">
         <v>3</v>
       </c>
@@ -2078,19 +3005,22 @@
       <c r="I11" s="32">
         <v>0</v>
       </c>
-      <c r="J11" s="33">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="12" customFormat="1">
+      <c r="K11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="40.5" spans="1:13">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="32">
         <v>6</v>
@@ -2101,7 +3031,9 @@
       <c r="E12" s="32">
         <v>5</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
       <c r="G12" s="32">
         <v>4</v>
       </c>
@@ -2111,19 +3043,22 @@
       <c r="I12" s="32">
         <v>0</v>
       </c>
-      <c r="J12" s="33">
-        <v>30</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="12" customFormat="1">
+      <c r="K12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="40.5" spans="1:13">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C13" s="32">
         <v>6</v>
@@ -2134,7 +3069,9 @@
       <c r="E13" s="32">
         <v>5</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
       <c r="G13" s="32">
         <v>4</v>
       </c>
@@ -2144,19 +3081,22 @@
       <c r="I13" s="32">
         <v>0</v>
       </c>
-      <c r="J13" s="33">
-        <v>16</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1">
+      <c r="K13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="27" spans="1:13">
       <c r="A14" s="12">
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C14" s="32">
         <v>6</v>
@@ -2167,7 +3107,9 @@
       <c r="E14" s="32">
         <v>5</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
       <c r="G14" s="32">
         <v>5</v>
       </c>
@@ -2177,19 +3119,22 @@
       <c r="I14" s="32">
         <v>0</v>
       </c>
-      <c r="J14" s="33">
-        <v>31</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1">
+      <c r="K14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" spans="1:13">
       <c r="A15" s="12">
         <v>12</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C15" s="32">
         <v>6</v>
@@ -2200,7 +3145,9 @@
       <c r="E15" s="32">
         <v>5</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
       <c r="G15" s="32">
         <v>5</v>
       </c>
@@ -2210,17 +3157,22 @@
       <c r="I15" s="32">
         <v>0</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="L15" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="12" customFormat="1">
+      <c r="K15" s="32">
+        <v>83</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:13">
       <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C16" s="32">
         <v>6</v>
@@ -2231,7 +3183,9 @@
       <c r="E16" s="32">
         <v>5</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
       <c r="G16" s="32">
         <v>6</v>
       </c>
@@ -2241,17 +3195,22 @@
       <c r="I16" s="32">
         <v>0</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="L16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="12" customFormat="1">
+      <c r="K16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="40.5" spans="1:13">
       <c r="A17" s="12">
         <v>14</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -2262,7 +3221,9 @@
       <c r="E17" s="32">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
       <c r="G17" s="32">
         <v>6</v>
       </c>
@@ -2272,19 +3233,22 @@
       <c r="I17" s="32">
         <v>0</v>
       </c>
-      <c r="J17" s="33">
-        <v>20</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="12" customFormat="1">
+      <c r="K17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="40.5" spans="1:13">
       <c r="A18" s="12">
         <v>15</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C18" s="32">
         <v>6</v>
@@ -2295,7 +3259,9 @@
       <c r="E18" s="32">
         <v>5</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
       <c r="G18" s="32">
         <v>7</v>
       </c>
@@ -2305,19 +3271,22 @@
       <c r="I18" s="32">
         <v>0</v>
       </c>
-      <c r="J18" s="33">
+      <c r="K18" s="32">
         <v>21</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="L18" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" s="13" customFormat="1" spans="1:13">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C19" s="35">
         <v>6</v>
@@ -2331,24 +3300,31 @@
       <c r="F19" s="35">
         <v>1</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="35">
+        <v>0</v>
+      </c>
       <c r="H19" s="35">
         <v>1</v>
       </c>
       <c r="I19" s="35">
         <v>0</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="L19" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J19" s="35">
+        <v>81</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C20" s="35">
         <v>6</v>
@@ -2362,24 +3338,31 @@
       <c r="F20" s="35">
         <v>3</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
       <c r="H20" s="35">
         <v>3</v>
       </c>
       <c r="I20" s="35">
         <v>0</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="L20" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J20" s="35">
+        <v>3</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C21" s="35">
         <v>6</v>
@@ -2393,24 +3376,31 @@
       <c r="F21" s="35">
         <v>3</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
       <c r="H21" s="35">
         <v>2</v>
       </c>
       <c r="I21" s="35">
         <v>0</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="L21" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C22" s="35">
         <v>6</v>
@@ -2424,24 +3414,31 @@
       <c r="F22" s="35">
         <v>4</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="35">
+        <v>0</v>
+      </c>
       <c r="H22" s="35">
         <v>4</v>
       </c>
       <c r="I22" s="35">
         <v>0</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="L22" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J22" s="35">
+        <v>100</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C23" s="35">
         <v>6</v>
@@ -2455,24 +3452,31 @@
       <c r="F23" s="35">
         <v>4</v>
       </c>
-      <c r="G23" s="35"/>
+      <c r="G23" s="35">
+        <v>0</v>
+      </c>
       <c r="H23" s="35">
         <v>2</v>
       </c>
       <c r="I23" s="35">
         <v>0</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="L23" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J23" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C24" s="35">
         <v>6</v>
@@ -2486,24 +3490,31 @@
       <c r="F24" s="35">
         <v>4</v>
       </c>
-      <c r="G24" s="35"/>
+      <c r="G24" s="35">
+        <v>0</v>
+      </c>
       <c r="H24" s="35">
         <v>2</v>
       </c>
       <c r="I24" s="35">
         <v>0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J24" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C25" s="35">
         <v>6</v>
@@ -2517,24 +3528,31 @@
       <c r="F25" s="35">
         <v>5</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
       <c r="H25" s="35">
         <v>5</v>
       </c>
       <c r="I25" s="35">
         <v>0</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="L25" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J25" s="35">
+        <v>93</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" s="13" customFormat="1" ht="27" spans="1:13">
       <c r="A26" s="13">
         <v>23</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C26" s="35">
         <v>6</v>
@@ -2548,24 +3566,31 @@
       <c r="F26" s="35">
         <v>6</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
       <c r="H26" s="35">
         <v>6</v>
       </c>
       <c r="I26" s="35">
         <v>0</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="L26" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="13" customFormat="1" ht="16">
+      <c r="J26" s="35">
+        <v>92</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" s="13" customFormat="1" spans="1:13">
       <c r="A27" s="13">
         <v>24</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C27" s="35">
         <v>6</v>
@@ -2579,24 +3604,31 @@
       <c r="F27" s="35">
         <v>7</v>
       </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="35">
+        <v>0</v>
+      </c>
       <c r="H27" s="35">
         <v>7</v>
       </c>
       <c r="I27" s="35">
         <v>0</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="L27" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="14" customFormat="1" ht="28">
+      <c r="J27" s="35">
+        <v>91</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" s="14" customFormat="1" ht="27" spans="1:13">
       <c r="A28" s="14">
         <v>25</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C28" s="38">
         <v>6</v>
@@ -2610,24 +3642,31 @@
       <c r="F28" s="38">
         <v>8</v>
       </c>
-      <c r="G28" s="38"/>
+      <c r="G28" s="35">
+        <v>0</v>
+      </c>
       <c r="H28" s="38">
         <v>8</v>
       </c>
       <c r="I28" s="38">
         <v>0</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="L28" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J28" s="38">
+        <v>47</v>
+      </c>
+      <c r="L28" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" s="15" customFormat="1" spans="1:13">
       <c r="A29" s="15">
         <v>26</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C29" s="41">
         <v>6</v>
@@ -2641,24 +3680,31 @@
       <c r="F29" s="41">
         <v>1</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="41">
+        <v>0</v>
+      </c>
       <c r="H29" s="41">
         <v>1</v>
       </c>
       <c r="I29" s="41">
         <v>0</v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="L29" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J29" s="41">
+        <v>82</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" s="15" customFormat="1" ht="27" spans="1:13">
       <c r="A30" s="15">
         <v>27</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C30" s="41">
         <v>6</v>
@@ -2672,24 +3718,31 @@
       <c r="F30" s="41">
         <v>3</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="41">
+        <v>0</v>
+      </c>
       <c r="H30" s="41">
         <v>1</v>
       </c>
       <c r="I30" s="41">
         <v>0</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="L30" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J30" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="1:13">
       <c r="A31" s="15">
         <v>28</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C31" s="41">
         <v>6</v>
@@ -2703,26 +3756,31 @@
       <c r="F31" s="41">
         <v>3</v>
       </c>
-      <c r="G31" s="41"/>
+      <c r="G31" s="41">
+        <v>0</v>
+      </c>
       <c r="H31" s="41">
         <v>1</v>
       </c>
       <c r="I31" s="41">
         <v>0</v>
       </c>
-      <c r="J31" s="41">
-        <v>1</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J31" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="15" customFormat="1" ht="40.5" spans="1:13">
       <c r="A32" s="15">
         <v>29</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C32" s="41">
         <v>6</v>
@@ -2736,24 +3794,31 @@
       <c r="F32" s="41">
         <v>4</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="41">
+        <v>0</v>
+      </c>
       <c r="H32" s="41">
         <v>2</v>
       </c>
       <c r="I32" s="41">
         <v>0</v>
       </c>
-      <c r="J32" s="41"/>
-      <c r="L32" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J32" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" s="15" customFormat="1" ht="27" spans="1:13">
       <c r="A33" s="15">
         <v>30</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C33" s="41">
         <v>6</v>
@@ -2767,7 +3832,9 @@
       <c r="F33" s="41">
         <v>4</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="41">
+        <v>0</v>
+      </c>
       <c r="H33" s="41">
         <v>3</v>
       </c>
@@ -2777,16 +3844,19 @@
       <c r="J33" s="41">
         <v>25</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="L33" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" s="15" customFormat="1" ht="40.5" spans="1:13">
       <c r="A34" s="15">
         <v>31</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C34" s="41">
         <v>6</v>
@@ -2800,24 +3870,31 @@
       <c r="F34" s="41">
         <v>5</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="41">
+        <v>0</v>
+      </c>
       <c r="H34" s="41">
         <v>2</v>
       </c>
       <c r="I34" s="41">
         <v>0</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="L34" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J34" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" s="15" customFormat="1" spans="1:13">
       <c r="A35" s="15">
         <v>32</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C35" s="41">
         <v>6</v>
@@ -2831,26 +3908,31 @@
       <c r="F35" s="41">
         <v>5</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>0</v>
+      </c>
       <c r="H35" s="41">
         <v>2</v>
       </c>
       <c r="I35" s="41">
         <v>0</v>
       </c>
-      <c r="J35" s="41">
-        <v>1</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J35" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" s="15" customFormat="1" spans="1:13">
       <c r="A36" s="15">
         <v>33</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C36" s="41">
         <v>6</v>
@@ -2864,24 +3946,31 @@
       <c r="F36" s="41">
         <v>6</v>
       </c>
-      <c r="G36" s="41"/>
+      <c r="G36" s="41">
+        <v>0</v>
+      </c>
       <c r="H36" s="41">
         <v>3</v>
       </c>
       <c r="I36" s="41">
         <v>0</v>
       </c>
-      <c r="J36" s="41"/>
-      <c r="L36" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="15" customFormat="1" ht="16">
+      <c r="J36" s="41">
+        <v>63</v>
+      </c>
+      <c r="L36" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" s="15" customFormat="1" ht="27" spans="1:13">
       <c r="A37" s="15">
         <v>34</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C37" s="41">
         <v>6</v>
@@ -2895,7 +3984,9 @@
       <c r="F37" s="41">
         <v>7</v>
       </c>
-      <c r="G37" s="41"/>
+      <c r="G37" s="41">
+        <v>0</v>
+      </c>
       <c r="H37" s="41">
         <v>4</v>
       </c>
@@ -2905,16 +3996,19 @@
       <c r="J37" s="41">
         <v>22</v>
       </c>
-      <c r="L37" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="16" customFormat="1" ht="16">
+      <c r="L37" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" s="16" customFormat="1" spans="1:13">
       <c r="A38" s="16">
         <v>35</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C38" s="44">
         <v>6</v>
@@ -2928,7 +4022,9 @@
       <c r="F38" s="44">
         <v>1</v>
       </c>
-      <c r="G38" s="44"/>
+      <c r="G38" s="44">
+        <v>0</v>
+      </c>
       <c r="H38" s="44">
         <v>1</v>
       </c>
@@ -2938,16 +4034,19 @@
       <c r="J38" s="44">
         <v>1</v>
       </c>
-      <c r="L38" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="L38" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" s="17" customFormat="1" ht="27" spans="1:13">
       <c r="A39" s="17">
         <v>36</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C39" s="47">
         <v>6</v>
@@ -2961,7 +4060,9 @@
       <c r="F39" s="47">
         <v>2</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="47">
+        <v>0</v>
+      </c>
       <c r="H39" s="47">
         <v>1</v>
       </c>
@@ -2969,18 +4070,21 @@
         <v>0</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="17" customFormat="1" ht="16">
+        <v>122</v>
+      </c>
+      <c r="L39" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" s="17" customFormat="1" spans="1:13">
       <c r="A40" s="17">
         <v>37</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C40" s="47">
         <v>6</v>
@@ -2994,26 +4098,31 @@
       <c r="F40" s="47">
         <v>2</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="47">
+        <v>0</v>
+      </c>
       <c r="H40" s="47">
         <v>1</v>
       </c>
       <c r="I40" s="47">
         <v>0</v>
       </c>
-      <c r="J40" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="J40" s="67">
+        <v>19</v>
+      </c>
+      <c r="L40" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" s="17" customFormat="1" spans="1:13">
       <c r="A41" s="17">
         <v>38</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C41" s="47">
         <v>6</v>
@@ -3027,7 +4136,9 @@
       <c r="F41" s="47">
         <v>4</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="47">
+        <v>0</v>
+      </c>
       <c r="H41" s="47">
         <v>3</v>
       </c>
@@ -3037,16 +4148,19 @@
       <c r="J41" s="47">
         <v>24</v>
       </c>
-      <c r="L41" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="L41" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" s="17" customFormat="1" spans="1:13">
       <c r="A42" s="17">
         <v>39</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C42" s="47">
         <v>6</v>
@@ -3060,24 +4174,31 @@
       <c r="F42" s="47">
         <v>4</v>
       </c>
-      <c r="G42" s="47"/>
+      <c r="G42" s="47">
+        <v>0</v>
+      </c>
       <c r="H42" s="47">
         <v>2</v>
       </c>
       <c r="I42" s="47">
         <v>0</v>
       </c>
-      <c r="J42" s="47"/>
-      <c r="L42" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="J42" s="47">
+        <v>102</v>
+      </c>
+      <c r="L42" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" s="17" customFormat="1" spans="1:13">
       <c r="A43" s="17">
         <v>40</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C43" s="47">
         <v>6</v>
@@ -3091,24 +4212,31 @@
       <c r="F43" s="47">
         <v>5</v>
       </c>
-      <c r="G43" s="47"/>
+      <c r="G43" s="47">
+        <v>0</v>
+      </c>
       <c r="H43" s="47">
         <v>2</v>
       </c>
       <c r="I43" s="47">
         <v>0</v>
       </c>
-      <c r="J43" s="47"/>
-      <c r="L43" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="J43" s="47">
+        <v>101</v>
+      </c>
+      <c r="L43" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" s="17" customFormat="1" spans="1:13">
       <c r="A44" s="17">
         <v>41</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C44" s="47">
         <v>6</v>
@@ -3122,7 +4250,9 @@
       <c r="F44" s="47">
         <v>5</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="47">
+        <v>0</v>
+      </c>
       <c r="H44" s="47">
         <v>2</v>
       </c>
@@ -3132,16 +4262,19 @@
       <c r="J44" s="47">
         <v>5</v>
       </c>
-      <c r="L44" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="L44" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" s="17" customFormat="1" spans="1:13">
       <c r="A45" s="17">
         <v>42</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C45" s="47">
         <v>6</v>
@@ -3155,7 +4288,9 @@
       <c r="F45" s="47">
         <v>6</v>
       </c>
-      <c r="G45" s="47"/>
+      <c r="G45" s="47">
+        <v>0</v>
+      </c>
       <c r="H45" s="47">
         <v>2</v>
       </c>
@@ -3165,16 +4300,19 @@
       <c r="J45" s="47">
         <v>4</v>
       </c>
-      <c r="L45" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="L45" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" s="17" customFormat="1" ht="27" spans="1:13">
       <c r="A46" s="17">
         <v>43</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C46" s="47">
         <v>6</v>
@@ -3188,7 +4326,9 @@
       <c r="F46" s="47">
         <v>6</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="47">
+        <v>0</v>
+      </c>
       <c r="H46" s="47">
         <v>3</v>
       </c>
@@ -3198,16 +4338,19 @@
       <c r="J46" s="47">
         <v>23</v>
       </c>
-      <c r="L46" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="17" customFormat="1" ht="16">
+      <c r="L46" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" s="17" customFormat="1" spans="1:13">
       <c r="A47" s="17">
         <v>44</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C47" s="47">
         <v>6</v>
@@ -3221,7 +4364,9 @@
       <c r="F47" s="47">
         <v>7</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="47">
+        <v>0</v>
+      </c>
       <c r="H47" s="47">
         <v>3</v>
       </c>
@@ -3231,16 +4376,19 @@
       <c r="J47" s="47">
         <v>7</v>
       </c>
-      <c r="L47" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="L47" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" s="18" customFormat="1" ht="27" spans="1:13">
       <c r="A48" s="18">
         <v>45</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C48" s="50">
         <v>6</v>
@@ -3254,26 +4402,31 @@
       <c r="F48" s="50">
         <v>1</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="50">
+        <v>0</v>
+      </c>
       <c r="H48" s="50">
         <v>1</v>
       </c>
       <c r="I48" s="50">
         <v>0</v>
       </c>
-      <c r="J48" s="50">
-        <v>18</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="J48" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" s="18" customFormat="1" spans="1:13">
       <c r="A49" s="18">
         <v>46</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C49" s="50">
         <v>6</v>
@@ -3287,26 +4440,31 @@
       <c r="F49" s="50">
         <v>2</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="50">
+        <v>0</v>
+      </c>
       <c r="H49" s="50">
         <v>1</v>
       </c>
       <c r="I49" s="50">
         <v>0</v>
       </c>
-      <c r="J49" s="50">
-        <v>1</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="J49" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="L49" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" s="18" customFormat="1" spans="1:13">
       <c r="A50" s="18">
         <v>47</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C50" s="50">
         <v>6</v>
@@ -3320,24 +4478,31 @@
       <c r="F50" s="50">
         <v>3</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="50">
+        <v>0</v>
+      </c>
       <c r="H50" s="50">
         <v>2</v>
       </c>
       <c r="I50" s="50">
         <v>0</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="L50" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="18" customFormat="1" ht="28">
+      <c r="J50" s="50">
+        <v>41</v>
+      </c>
+      <c r="L50" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" s="18" customFormat="1" ht="27" spans="1:13">
       <c r="A51" s="18">
         <v>48</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C51" s="50">
         <v>6</v>
@@ -3351,26 +4516,31 @@
       <c r="F51" s="50">
         <v>3</v>
       </c>
-      <c r="G51" s="50"/>
+      <c r="G51" s="50">
+        <v>0</v>
+      </c>
       <c r="H51" s="50">
         <v>1</v>
       </c>
       <c r="I51" s="50">
         <v>0</v>
       </c>
-      <c r="J51" s="50">
-        <v>18</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="J51" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="L51" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" s="18" customFormat="1" spans="1:13">
       <c r="A52" s="18">
         <v>49</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C52" s="50">
         <v>6</v>
@@ -3384,7 +4554,9 @@
       <c r="F52" s="50">
         <v>4</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="50">
+        <v>0</v>
+      </c>
       <c r="H52" s="50">
         <v>1</v>
       </c>
@@ -3392,18 +4564,21 @@
         <v>0</v>
       </c>
       <c r="J52" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="18" customFormat="1" ht="16">
+        <v>165</v>
+      </c>
+      <c r="L52" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" s="18" customFormat="1" spans="1:13">
       <c r="A53" s="18">
         <v>50</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="C53" s="50">
         <v>6</v>
@@ -3417,24 +4592,31 @@
       <c r="F53" s="50">
         <v>4</v>
       </c>
-      <c r="G53" s="50"/>
+      <c r="G53" s="50">
+        <v>0</v>
+      </c>
       <c r="H53" s="50">
         <v>2</v>
       </c>
       <c r="I53" s="50">
         <v>0</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="L53" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="J53" s="50">
+        <v>44</v>
+      </c>
+      <c r="L53" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" s="18" customFormat="1" ht="27" spans="1:13">
       <c r="A54" s="18">
         <v>51</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C54" s="50">
         <v>6</v>
@@ -3448,24 +4630,31 @@
       <c r="F54" s="50">
         <v>5</v>
       </c>
-      <c r="G54" s="50"/>
+      <c r="G54" s="50">
+        <v>0</v>
+      </c>
       <c r="H54" s="50">
         <v>3</v>
       </c>
       <c r="I54" s="50">
         <v>0</v>
       </c>
-      <c r="J54" s="50"/>
-      <c r="L54" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="J54" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="L54" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" s="18" customFormat="1" spans="1:13">
       <c r="A55" s="18">
         <v>52</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="C55" s="50">
         <v>6</v>
@@ -3479,24 +4668,31 @@
       <c r="F55" s="50">
         <v>6</v>
       </c>
-      <c r="G55" s="50"/>
+      <c r="G55" s="50">
+        <v>0</v>
+      </c>
       <c r="H55" s="50">
         <v>3</v>
       </c>
       <c r="I55" s="50">
         <v>0</v>
       </c>
-      <c r="J55" s="50"/>
-      <c r="L55" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="18" customFormat="1" ht="16">
+      <c r="J55" s="50">
+        <v>46</v>
+      </c>
+      <c r="L55" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" s="18" customFormat="1" spans="1:13">
       <c r="A56" s="18">
         <v>53</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="C56" s="50">
         <v>6</v>
@@ -3510,356 +4706,356 @@
       <c r="F56" s="50">
         <v>7</v>
       </c>
-      <c r="G56" s="50"/>
+      <c r="G56" s="50">
+        <v>0</v>
+      </c>
       <c r="H56" s="50">
         <v>4</v>
       </c>
       <c r="I56" s="50">
         <v>0</v>
       </c>
-      <c r="J56" s="50"/>
-      <c r="L56" s="18" t="s">
-        <v>105</v>
+      <c r="J56" s="50">
+        <v>45</v>
+      </c>
+      <c r="L56" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="M56" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <autoFilter ref="A1:M56"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11">
       <c r="D4" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11">
       <c r="E5" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11">
       <c r="E6" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11">
       <c r="E7" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8">
       <c r="G10" s="3" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8">
       <c r="G11" s="3" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
       <c r="G12" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
       <c r="G13" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="7" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
       <c r="G18" s="3" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
       <c r="G21" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
       <c r="G28" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E3:E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="4:4">
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3867,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3881,13 +5077,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3895,13 +5091,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3912,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3923,33 +5119,28 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="3480" yWindow="0" windowWidth="31480" windowHeight="20300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$56</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -417,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
   <si>
     <t>int</t>
   </si>
@@ -1237,14 +1242,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,150 +1317,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1470,8 +1325,19 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1486,13 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,31 +1370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399914548173467"/>
+        <fgColor theme="5" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,194 +1404,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1735,28 +1415,28 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1778,266 +1458,24 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2195,9 +1633,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,57 +1685,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2562,32 +1950,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="20"/>
     <col min="4" max="4" width="9" style="21"/>
     <col min="5" max="9" width="9" style="20"/>
-    <col min="10" max="10" width="13.6666666666667" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.4" style="22" customWidth="1"/>
-    <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="9" style="22"/>
+    <col min="12" max="12" width="30.33203125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="11" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2006,7 @@
       <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="24" t="s">
@@ -2628,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13" s="11" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -2659,17 +2047,17 @@
       <c r="J2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:13">
+    <row r="3" spans="1:13" s="11" customFormat="1">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -2700,17 +2088,17 @@
       <c r="J3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="53" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="16.5" spans="1:13">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="16">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2741,14 +2129,15 @@
       <c r="J4" s="24">
         <v>60</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="54" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:13">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="16">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2779,14 +2168,15 @@
       <c r="J5" s="24">
         <v>62</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="54" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:13">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="16">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2817,14 +2207,15 @@
       <c r="J6" s="24">
         <v>40</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="55" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:13">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="16">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2855,14 +2246,15 @@
       <c r="J7" s="24">
         <v>42</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="55" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:13">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="16">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2893,14 +2285,15 @@
       <c r="J8" s="24">
         <v>70</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="55" t="s">
         <v>35</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="22.5" spans="1:13">
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="24">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2928,17 +2321,17 @@
       <c r="I9" s="32">
         <v>0</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="56" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="27" spans="1:13">
+    <row r="10" spans="1:13" s="12" customFormat="1" ht="28">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2967,17 +2360,17 @@
         <v>0</v>
       </c>
       <c r="J10" s="32"/>
-      <c r="K10" s="12">
+      <c r="K10" s="57">
         <v>82</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="57" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" spans="1:13">
+    <row r="11" spans="1:13" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3005,17 +2398,17 @@
       <c r="I11" s="32">
         <v>0</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="57" t="s">
         <v>44</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="40.5" spans="1:13">
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="28">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -3043,17 +2436,17 @@
       <c r="I12" s="32">
         <v>0</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="58" t="s">
         <v>47</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="40.5" spans="1:13">
+    <row r="13" spans="1:13" s="12" customFormat="1" ht="28">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -3081,17 +2474,17 @@
       <c r="I13" s="32">
         <v>0</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="58" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="27" spans="1:13">
+    <row r="14" spans="1:13" s="12" customFormat="1" ht="28">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -3119,17 +2512,17 @@
       <c r="I14" s="32">
         <v>0</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="58" t="s">
         <v>53</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:13">
+    <row r="15" spans="1:13" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -3157,17 +2550,17 @@
       <c r="I15" s="32">
         <v>0</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="57">
         <v>83</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="57" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:13">
+    <row r="16" spans="1:13" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -3195,17 +2588,17 @@
       <c r="I16" s="32">
         <v>0</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="57" t="s">
         <v>58</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="40.5" spans="1:13">
+    <row r="17" spans="1:13" s="12" customFormat="1" ht="42">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -3233,17 +2626,17 @@
       <c r="I17" s="32">
         <v>0</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="58" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" ht="40.5" spans="1:13">
+    <row r="18" spans="1:13" s="12" customFormat="1" ht="42">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -3271,17 +2664,17 @@
       <c r="I18" s="32">
         <v>0</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="57">
         <v>21</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="58" t="s">
         <v>64</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" s="13" customFormat="1" spans="1:13">
+    <row r="19" spans="1:13" s="13" customFormat="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -3312,14 +2705,15 @@
       <c r="J19" s="35">
         <v>81</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="K19" s="59"/>
+      <c r="L19" s="59" t="s">
         <v>67</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="28">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -3350,14 +2744,15 @@
       <c r="J20" s="35">
         <v>3</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="K20" s="59"/>
+      <c r="L20" s="60" t="s">
         <v>69</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="28">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -3388,14 +2783,15 @@
       <c r="J21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="K21" s="59"/>
+      <c r="L21" s="60" t="s">
         <v>72</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="22" spans="1:13" s="13" customFormat="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -3426,14 +2822,15 @@
       <c r="J22" s="35">
         <v>100</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="K22" s="59"/>
+      <c r="L22" s="60" t="s">
         <v>74</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="28">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -3464,14 +2861,15 @@
       <c r="J23" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="61" t="s">
+      <c r="K23" s="59"/>
+      <c r="L23" s="60" t="s">
         <v>77</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="28">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3502,14 +2900,15 @@
       <c r="J24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="K24" s="59"/>
+      <c r="L24" s="60" t="s">
         <v>81</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="28">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3540,14 +2939,15 @@
       <c r="J25" s="35">
         <v>93</v>
       </c>
-      <c r="L25" s="61" t="s">
+      <c r="K25" s="59"/>
+      <c r="L25" s="60" t="s">
         <v>84</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" s="13" customFormat="1" ht="27" spans="1:13">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="28">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3578,14 +2978,15 @@
       <c r="J26" s="35">
         <v>92</v>
       </c>
-      <c r="L26" s="61" t="s">
+      <c r="K26" s="59"/>
+      <c r="L26" s="60" t="s">
         <v>87</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" s="13" customFormat="1" spans="1:13">
+    <row r="27" spans="1:13" s="13" customFormat="1">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3616,14 +3017,15 @@
       <c r="J27" s="35">
         <v>91</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="K27" s="59"/>
+      <c r="L27" s="59" t="s">
         <v>90</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" s="14" customFormat="1" ht="27" spans="1:13">
+    <row r="28" spans="1:13" s="14" customFormat="1" ht="28">
       <c r="A28" s="14">
         <v>25</v>
       </c>
@@ -3654,14 +3056,15 @@
       <c r="J28" s="38">
         <v>47</v>
       </c>
-      <c r="L28" s="62" t="s">
+      <c r="K28" s="38"/>
+      <c r="L28" s="61" t="s">
         <v>93</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" s="15" customFormat="1" spans="1:13">
+    <row r="29" spans="1:13" s="15" customFormat="1">
       <c r="A29" s="15">
         <v>26</v>
       </c>
@@ -3692,14 +3095,15 @@
       <c r="J29" s="41">
         <v>82</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="K29" s="62"/>
+      <c r="L29" s="62" t="s">
         <v>96</v>
       </c>
       <c r="M29" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" s="15" customFormat="1" ht="27" spans="1:13">
+    <row r="30" spans="1:13" s="15" customFormat="1" ht="28">
       <c r="A30" s="15">
         <v>27</v>
       </c>
@@ -3730,14 +3134,15 @@
       <c r="J30" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="K30" s="62"/>
+      <c r="L30" s="63" t="s">
         <v>99</v>
       </c>
       <c r="M30" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" s="15" customFormat="1" spans="1:13">
+    <row r="31" spans="1:13" s="15" customFormat="1">
       <c r="A31" s="15">
         <v>28</v>
       </c>
@@ -3768,14 +3173,15 @@
       <c r="J31" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L31" s="63" t="s">
+      <c r="K31" s="62"/>
+      <c r="L31" s="62" t="s">
         <v>102</v>
       </c>
       <c r="M31" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" s="15" customFormat="1" ht="40.5" spans="1:13">
+    <row r="32" spans="1:13" s="15" customFormat="1" ht="28">
       <c r="A32" s="15">
         <v>29</v>
       </c>
@@ -3806,14 +3212,15 @@
       <c r="J32" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="64" t="s">
+      <c r="K32" s="62"/>
+      <c r="L32" s="63" t="s">
         <v>105</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" s="15" customFormat="1" ht="27" spans="1:13">
+    <row r="33" spans="1:13" s="15" customFormat="1" ht="28">
       <c r="A33" s="15">
         <v>30</v>
       </c>
@@ -3844,14 +3251,15 @@
       <c r="J33" s="41">
         <v>25</v>
       </c>
-      <c r="L33" s="64" t="s">
+      <c r="K33" s="62"/>
+      <c r="L33" s="63" t="s">
         <v>107</v>
       </c>
       <c r="M33" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" s="15" customFormat="1" ht="40.5" spans="1:13">
+    <row r="34" spans="1:13" s="15" customFormat="1" ht="42">
       <c r="A34" s="15">
         <v>31</v>
       </c>
@@ -3882,14 +3290,15 @@
       <c r="J34" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="K34" s="62"/>
+      <c r="L34" s="63" t="s">
         <v>110</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" s="15" customFormat="1" spans="1:13">
+    <row r="35" spans="1:13" s="15" customFormat="1">
       <c r="A35" s="15">
         <v>32</v>
       </c>
@@ -3920,14 +3329,15 @@
       <c r="J35" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="63" t="s">
+      <c r="K35" s="62"/>
+      <c r="L35" s="62" t="s">
         <v>113</v>
       </c>
       <c r="M35" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" s="15" customFormat="1" spans="1:13">
+    <row r="36" spans="1:13" s="15" customFormat="1">
       <c r="A36" s="15">
         <v>33</v>
       </c>
@@ -3958,14 +3368,15 @@
       <c r="J36" s="41">
         <v>63</v>
       </c>
-      <c r="L36" s="63" t="s">
+      <c r="K36" s="62"/>
+      <c r="L36" s="62" t="s">
         <v>115</v>
       </c>
       <c r="M36" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" s="15" customFormat="1" ht="27" spans="1:13">
+    <row r="37" spans="1:13" s="15" customFormat="1" ht="28">
       <c r="A37" s="15">
         <v>34</v>
       </c>
@@ -3996,14 +3407,15 @@
       <c r="J37" s="41">
         <v>22</v>
       </c>
-      <c r="L37" s="64" t="s">
+      <c r="K37" s="62"/>
+      <c r="L37" s="63" t="s">
         <v>117</v>
       </c>
       <c r="M37" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" s="16" customFormat="1" spans="1:13">
+    <row r="38" spans="1:13" s="16" customFormat="1">
       <c r="A38" s="16">
         <v>35</v>
       </c>
@@ -4034,14 +3446,15 @@
       <c r="J38" s="44">
         <v>1</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="K38" s="64"/>
+      <c r="L38" s="64" t="s">
         <v>119</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" s="17" customFormat="1" ht="27" spans="1:13">
+    <row r="39" spans="1:13" s="17" customFormat="1" ht="28">
       <c r="A39" s="17">
         <v>36</v>
       </c>
@@ -4072,14 +3485,15 @@
       <c r="J39" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="66" t="s">
+      <c r="K39" s="67"/>
+      <c r="L39" s="65" t="s">
         <v>123</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:13">
+    <row r="40" spans="1:13" s="17" customFormat="1">
       <c r="A40" s="17">
         <v>37</v>
       </c>
@@ -4107,17 +3521,18 @@
       <c r="I40" s="47">
         <v>0</v>
       </c>
-      <c r="J40" s="67">
+      <c r="J40" s="66">
         <v>19</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="K40" s="67"/>
+      <c r="L40" s="67" t="s">
         <v>126</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" spans="1:13">
+    <row r="41" spans="1:13" s="17" customFormat="1">
       <c r="A41" s="17">
         <v>38</v>
       </c>
@@ -4148,14 +3563,15 @@
       <c r="J41" s="47">
         <v>24</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="K41" s="67"/>
+      <c r="L41" s="67" t="s">
         <v>129</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" spans="1:13">
+    <row r="42" spans="1:13" s="17" customFormat="1">
       <c r="A42" s="17">
         <v>39</v>
       </c>
@@ -4186,14 +3602,15 @@
       <c r="J42" s="47">
         <v>102</v>
       </c>
-      <c r="L42" s="68" t="s">
+      <c r="K42" s="67"/>
+      <c r="L42" s="67" t="s">
         <v>132</v>
       </c>
       <c r="M42" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" spans="1:13">
+    <row r="43" spans="1:13" s="17" customFormat="1">
       <c r="A43" s="17">
         <v>40</v>
       </c>
@@ -4224,14 +3641,15 @@
       <c r="J43" s="47">
         <v>101</v>
       </c>
-      <c r="L43" s="68" t="s">
+      <c r="K43" s="67"/>
+      <c r="L43" s="67" t="s">
         <v>135</v>
       </c>
       <c r="M43" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" spans="1:13">
+    <row r="44" spans="1:13" s="17" customFormat="1">
       <c r="A44" s="17">
         <v>41</v>
       </c>
@@ -4262,14 +3680,15 @@
       <c r="J44" s="47">
         <v>5</v>
       </c>
-      <c r="L44" s="68" t="s">
+      <c r="K44" s="67"/>
+      <c r="L44" s="67" t="s">
         <v>138</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" spans="1:13">
+    <row r="45" spans="1:13" s="17" customFormat="1">
       <c r="A45" s="17">
         <v>42</v>
       </c>
@@ -4300,14 +3719,15 @@
       <c r="J45" s="47">
         <v>4</v>
       </c>
-      <c r="L45" s="68" t="s">
+      <c r="K45" s="67"/>
+      <c r="L45" s="67" t="s">
         <v>141</v>
       </c>
       <c r="M45" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" ht="27" spans="1:13">
+    <row r="46" spans="1:13" s="17" customFormat="1" ht="28">
       <c r="A46" s="17">
         <v>43</v>
       </c>
@@ -4338,14 +3758,15 @@
       <c r="J46" s="47">
         <v>23</v>
       </c>
-      <c r="L46" s="66" t="s">
+      <c r="K46" s="67"/>
+      <c r="L46" s="65" t="s">
         <v>144</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" s="17" customFormat="1" spans="1:13">
+    <row r="47" spans="1:13" s="17" customFormat="1">
       <c r="A47" s="17">
         <v>44</v>
       </c>
@@ -4376,14 +3797,15 @@
       <c r="J47" s="47">
         <v>7</v>
       </c>
-      <c r="L47" s="68" t="s">
+      <c r="K47" s="67"/>
+      <c r="L47" s="67" t="s">
         <v>147</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" s="18" customFormat="1" ht="27" spans="1:13">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="28">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -4414,14 +3836,15 @@
       <c r="J48" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="L48" s="69" t="s">
+      <c r="K48" s="69"/>
+      <c r="L48" s="68" t="s">
         <v>151</v>
       </c>
       <c r="M48" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" s="18" customFormat="1" spans="1:13">
+    <row r="49" spans="1:13" s="18" customFormat="1">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -4452,14 +3875,15 @@
       <c r="J49" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="L49" s="70" t="s">
+      <c r="K49" s="69"/>
+      <c r="L49" s="69" t="s">
         <v>155</v>
       </c>
       <c r="M49" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" s="18" customFormat="1" spans="1:13">
+    <row r="50" spans="1:13" s="18" customFormat="1">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -4490,14 +3914,15 @@
       <c r="J50" s="50">
         <v>41</v>
       </c>
-      <c r="L50" s="70" t="s">
+      <c r="K50" s="69"/>
+      <c r="L50" s="69" t="s">
         <v>158</v>
       </c>
       <c r="M50" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" s="18" customFormat="1" ht="27" spans="1:13">
+    <row r="51" spans="1:13" s="18" customFormat="1" ht="28">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -4528,14 +3953,15 @@
       <c r="J51" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="L51" s="69" t="s">
+      <c r="K51" s="69"/>
+      <c r="L51" s="68" t="s">
         <v>162</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" s="18" customFormat="1" spans="1:13">
+    <row r="52" spans="1:13" s="18" customFormat="1">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -4566,14 +3992,15 @@
       <c r="J52" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="L52" s="70" t="s">
+      <c r="K52" s="69"/>
+      <c r="L52" s="69" t="s">
         <v>166</v>
       </c>
       <c r="M52" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" s="18" customFormat="1" spans="1:13">
+    <row r="53" spans="1:13" s="18" customFormat="1">
       <c r="A53" s="18">
         <v>50</v>
       </c>
@@ -4604,14 +4031,15 @@
       <c r="J53" s="50">
         <v>44</v>
       </c>
-      <c r="L53" s="70" t="s">
+      <c r="K53" s="69"/>
+      <c r="L53" s="69" t="s">
         <v>169</v>
       </c>
       <c r="M53" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" s="18" customFormat="1" ht="27" spans="1:13">
+    <row r="54" spans="1:13" s="18" customFormat="1" ht="28">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -4642,14 +4070,15 @@
       <c r="J54" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="L54" s="69" t="s">
+      <c r="K54" s="69"/>
+      <c r="L54" s="68" t="s">
         <v>173</v>
       </c>
       <c r="M54" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" s="18" customFormat="1" spans="1:13">
+    <row r="55" spans="1:13" s="18" customFormat="1">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -4680,14 +4109,15 @@
       <c r="J55" s="50">
         <v>46</v>
       </c>
-      <c r="L55" s="70" t="s">
+      <c r="K55" s="69"/>
+      <c r="L55" s="69" t="s">
         <v>176</v>
       </c>
       <c r="M55" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="56" s="18" customFormat="1" spans="1:13">
+    <row r="56" spans="1:13" s="18" customFormat="1">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -4718,7 +4148,8 @@
       <c r="J56" s="50">
         <v>45</v>
       </c>
-      <c r="L56" s="70" t="s">
+      <c r="K56" s="69"/>
+      <c r="L56" s="69" t="s">
         <v>179</v>
       </c>
       <c r="M56" s="18" t="s">
@@ -4727,34 +4158,38 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M56"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -4791,7 +4226,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>192</v>
       </c>
@@ -4811,7 +4246,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="4:11">
+    <row r="4" spans="1:11">
       <c r="D4" t="s">
         <v>198</v>
       </c>
@@ -4825,7 +4260,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="5:11">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>202</v>
       </c>
@@ -4836,7 +4271,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="5:11">
+    <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>205</v>
       </c>
@@ -4850,7 +4285,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="5:11">
+    <row r="7" spans="1:11">
       <c r="E7" t="s">
         <v>209</v>
       </c>
@@ -4861,7 +4296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>212</v>
       </c>
@@ -4878,7 +4313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>217</v>
       </c>
@@ -4898,7 +4333,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="7:8">
+    <row r="10" spans="1:11">
       <c r="G10" s="3" t="s">
         <v>222</v>
       </c>
@@ -4906,7 +4341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="7:8">
+    <row r="11" spans="1:11">
       <c r="G11" s="3" t="s">
         <v>223</v>
       </c>
@@ -4914,17 +4349,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="7:7">
+    <row r="12" spans="1:11">
       <c r="G12" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="1:11">
       <c r="G13" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:11">
       <c r="B14" s="2" t="s">
         <v>182</v>
       </c>
@@ -4932,7 +4367,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>227</v>
       </c>
@@ -4946,7 +4381,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>231</v>
       </c>
@@ -4971,7 +4406,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="2:8">
       <c r="G18" s="3" t="s">
         <v>236</v>
       </c>
@@ -4979,22 +4414,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="2:8">
       <c r="G21" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="2:8">
       <c r="G22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="2:8">
       <c r="G23" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
+    <row r="24" spans="2:8">
       <c r="G24" s="7" t="s">
         <v>240</v>
       </c>
@@ -5002,55 +4437,59 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
+    <row r="25" spans="2:8">
       <c r="G25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="2:8">
       <c r="G26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="2:8">
       <c r="G27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="2:8">
       <c r="G28" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="7:7">
+    <row r="29" spans="2:8">
       <c r="G29" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="4:4">
+    <row r="1" spans="2:5">
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +4561,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="2:5">
       <c r="D8">
         <v>6</v>
       </c>
@@ -5130,7 +4569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="2:5">
       <c r="D9">
         <v>7</v>
       </c>
@@ -5139,8 +4578,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>